--- a/publication/results/rigid_transforms/df_icp.xlsx
+++ b/publication/results/rigid_transforms/df_icp.xlsx
@@ -527,28 +527,28 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3645290539665327</v>
+        <v>0.3645290537303952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9922315590692772</v>
+        <v>0.9922315590017359</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3989909019354627</v>
+        <v>-0.398990902131743</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6917035547646151</v>
+        <v>-0.6917035548881358</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.11985374675406</v>
+        <v>-48.11985370820532</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5330771858022728</v>
+        <v>0.5330771858052146</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5219253826597661</v>
+        <v>0.5219253825363451</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6541758752244193</v>
+        <v>0.6541758752180324</v>
       </c>
       <c r="N2" t="n">
         <v>87</v>
@@ -577,28 +577,28 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3845270665314646</v>
+        <v>0.3845270659512408</v>
       </c>
       <c r="G3" t="n">
-        <v>1.027036172572427</v>
+        <v>1.027036171886197</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4691201840923327</v>
+        <v>-0.4691201837585481</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6318614979638824</v>
+        <v>-0.6318614974112506</v>
       </c>
       <c r="J3" t="n">
-        <v>-47.97111182537117</v>
+        <v>-47.97111178682091</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5829538267975779</v>
+        <v>0.5829538265813654</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5264620275459974</v>
+        <v>0.5264620264481391</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6616690027093741</v>
+        <v>0.6616690027081745</v>
       </c>
       <c r="N3" t="n">
         <v>87</v>
@@ -627,28 +627,28 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.359242730488743</v>
+        <v>0.3592427306524918</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9756437519842311</v>
+        <v>0.9756437526229654</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5274935551722137</v>
+        <v>-0.5274935552295688</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6141091840304398</v>
+        <v>-0.614109184356721</v>
       </c>
       <c r="J4" t="n">
-        <v>-47.62915406922691</v>
+        <v>-47.62915403067529</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5560243931136257</v>
+        <v>0.5560243934496215</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5193163560517805</v>
+        <v>0.5193163568959961</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6107602863526407</v>
+        <v>0.610760286349298</v>
       </c>
       <c r="N4" t="n">
         <v>87</v>
@@ -677,28 +677,28 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3895421960310076</v>
+        <v>0.3895421958714698</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9187490843144858</v>
+        <v>0.9187490843410921</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3330259608923143</v>
+        <v>-0.3330259612213808</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6902268646171592</v>
+        <v>-0.6902268642646732</v>
       </c>
       <c r="J5" t="n">
-        <v>-42.93966520946207</v>
+        <v>-42.9396652773152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5375474859489761</v>
+        <v>0.5375474860340377</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4892252021540759</v>
+        <v>0.4892252021101197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5619619932486021</v>
+        <v>0.5619619932490272</v>
       </c>
       <c r="N5" t="n">
         <v>87</v>
@@ -727,28 +727,28 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3446446573597982</v>
+        <v>0.3446446575289728</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8550490658628248</v>
+        <v>0.8550490659179836</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3136952957941048</v>
+        <v>-0.3136952955061361</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.682937335634449</v>
+        <v>-0.6829373361051125</v>
       </c>
       <c r="J6" t="n">
-        <v>-43.08039025571263</v>
+        <v>-43.08039032356498</v>
       </c>
       <c r="K6" t="n">
-        <v>0.546499678431427</v>
+        <v>0.5464996788669018</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4975761762999754</v>
+        <v>0.4975761759095184</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4299592484013886</v>
+        <v>0.4299592484094292</v>
       </c>
       <c r="N6" t="n">
         <v>86</v>
@@ -777,28 +777,28 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3396046682324055</v>
+        <v>0.3396046681749177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8692186314255955</v>
+        <v>0.8692186314123941</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2789081188022919</v>
+        <v>-0.278908118548145</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6769631910735256</v>
+        <v>-0.67696319103203</v>
       </c>
       <c r="J7" t="n">
-        <v>-43.45439920207554</v>
+        <v>-43.45439926992331</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5391859555703582</v>
+        <v>0.5391859556767874</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4880799398542167</v>
+        <v>0.4880799397133608</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4760225906876656</v>
+        <v>0.4760225906873986</v>
       </c>
       <c r="N7" t="n">
         <v>86</v>
@@ -827,28 +827,28 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3308000125797809</v>
+        <v>0.3308000122549055</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8606213627610279</v>
+        <v>0.8606213625546318</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2301859672646742</v>
+        <v>-0.230185966883198</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6123056864327054</v>
+        <v>-0.6123056866997558</v>
       </c>
       <c r="J8" t="n">
-        <v>-37.88456604773805</v>
+        <v>-37.88456605574518</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5440857697873873</v>
+        <v>0.5440857703002112</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5032750824198231</v>
+        <v>0.5032750815126301</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4374402777189988</v>
+        <v>0.4374402777187937</v>
       </c>
       <c r="N8" t="n">
         <v>87</v>
@@ -877,28 +877,28 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3435551122153334</v>
+        <v>0.343555110876005</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8648108475579622</v>
+        <v>0.8648108467443149</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.206024891847278</v>
+        <v>-0.2060248917287595</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.67230414368737</v>
+        <v>-0.6723041435905088</v>
       </c>
       <c r="J9" t="n">
-        <v>-37.72247028177881</v>
+        <v>-37.72247028978487</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5327475330383612</v>
+        <v>0.5327475324172913</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4988840675074638</v>
+        <v>0.4988840667598533</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4638885160064678</v>
+        <v>0.4638885160068724</v>
       </c>
       <c r="N9" t="n">
         <v>87</v>
@@ -927,28 +927,28 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3577778603521305</v>
+        <v>0.3577778592788644</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8548596997614271</v>
+        <v>0.8548596991247354</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2626605327186553</v>
+        <v>-0.262660532502025</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6356140850215866</v>
+        <v>-0.6356140847603342</v>
       </c>
       <c r="J10" t="n">
-        <v>-37.66978709791926</v>
+        <v>-37.66978710592608</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5257350238166079</v>
+        <v>0.5257350236903122</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4971996603940224</v>
+        <v>0.4971996594336355</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4551706149487372</v>
+        <v>0.4551706149479142</v>
       </c>
       <c r="N10" t="n">
         <v>87</v>
@@ -977,28 +977,28 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.314430179346988</v>
+        <v>0.3144301797759524</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7978803696090844</v>
+        <v>0.7978803702654516</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1794723541590884</v>
+        <v>-0.1794723552672508</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5788370290132434</v>
+        <v>-0.5788370284276425</v>
       </c>
       <c r="J11" t="n">
-        <v>-33.11701589916878</v>
+        <v>-33.11700793254644</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5584121141866726</v>
+        <v>0.5584121149204909</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5027929535913008</v>
+        <v>0.5027929533984835</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2683062443478281</v>
+        <v>0.2683062451337741</v>
       </c>
       <c r="N11" t="n">
         <v>87</v>
@@ -1027,28 +1027,28 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3076451729326776</v>
+        <v>0.3076451731908614</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7883851858478633</v>
+        <v>0.7883851864944926</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1959385334675972</v>
+        <v>-0.195938532708908</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5798639425079841</v>
+        <v>-0.5798639433103858</v>
       </c>
       <c r="J12" t="n">
-        <v>-33.04167745434416</v>
+        <v>-33.04166948754022</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5383648389988616</v>
+        <v>0.5383648387006916</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5005018182871829</v>
+        <v>0.5005018190310966</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2849779487702934</v>
+        <v>0.28497794981595</v>
       </c>
       <c r="N12" t="n">
         <v>87</v>
@@ -1077,28 +1077,28 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3181889088281933</v>
+        <v>0.3181889087633451</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7907616728221916</v>
+        <v>0.7907616728062469</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1899768878888608</v>
+        <v>-0.1899768886900119</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5764455886564974</v>
+        <v>-0.5764455881486015</v>
       </c>
       <c r="J13" t="n">
-        <v>-33.00772834105118</v>
+        <v>-33.00772037433785</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5375336348541657</v>
+        <v>0.5375336344548317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4987741403893414</v>
+        <v>0.4987741408902809</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2959492718083189</v>
+        <v>0.2959492716468445</v>
       </c>
       <c r="N13" t="n">
         <v>87</v>
@@ -1127,28 +1127,28 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2876329643640315</v>
+        <v>0.2876329638619542</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7724754548522907</v>
+        <v>0.7724754544485587</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.05434044006591421</v>
+        <v>-0.05434044142663197</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5457663690308436</v>
+        <v>-0.5457663702477475</v>
       </c>
       <c r="J14" t="n">
-        <v>-28.59176341388069</v>
+        <v>-28.59174501088357</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5411030657885261</v>
+        <v>0.5411030658076535</v>
       </c>
       <c r="L14" t="n">
-        <v>0.499167187359732</v>
+        <v>0.4991671871348032</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2340041016881389</v>
+        <v>0.2340041007910008</v>
       </c>
       <c r="N14" t="n">
         <v>87</v>
@@ -1177,28 +1177,28 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2800018215885484</v>
+        <v>0.2800018214641122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7642411305388661</v>
+        <v>0.7642411304357316</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0454101115392973</v>
+        <v>-0.04541011165730424</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.56543939026011</v>
+        <v>-0.5654393892864391</v>
       </c>
       <c r="J15" t="n">
-        <v>-28.49491436618428</v>
+        <v>-28.49489596302231</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5347301026672149</v>
+        <v>0.5347301027474228</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4992402982802332</v>
+        <v>0.499240298654347</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2211048336918782</v>
+        <v>0.2211048322966076</v>
       </c>
       <c r="N15" t="n">
         <v>87</v>
@@ -1227,28 +1227,28 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2827527695295824</v>
+        <v>0.2827527690476719</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7784102792682481</v>
+        <v>0.7784102787249925</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.05186802299431292</v>
+        <v>-0.05186802156924841</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.546119896765731</v>
+        <v>-0.5461198951883262</v>
       </c>
       <c r="J16" t="n">
-        <v>-28.45708456013252</v>
+        <v>-28.45706615718976</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5413536918145674</v>
+        <v>0.5413536919863645</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4990331303313393</v>
+        <v>0.4990331300202367</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2526354647727017</v>
+        <v>0.2526354633451983</v>
       </c>
       <c r="N16" t="n">
         <v>87</v>
@@ -1277,28 +1277,28 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3009660985523906</v>
+        <v>0.3009660984937917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7817265038639361</v>
+        <v>0.7817265039303416</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.02858337604135386</v>
+        <v>-0.02858337567897706</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.3726299533806809</v>
+        <v>-0.3726299539142701</v>
       </c>
       <c r="J17" t="n">
-        <v>-23.03999529282481</v>
+        <v>-23.03998789264941</v>
       </c>
       <c r="K17" t="n">
-        <v>0.536626768953669</v>
+        <v>0.5366267688570207</v>
       </c>
       <c r="L17" t="n">
-        <v>0.497314582514872</v>
+        <v>0.4973145825966838</v>
       </c>
       <c r="M17" t="n">
-        <v>0.27532933680181</v>
+        <v>0.275329337031011</v>
       </c>
       <c r="N17" t="n">
         <v>87</v>
@@ -1327,28 +1327,28 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2905846183133161</v>
+        <v>0.2905846182979606</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7667923865040613</v>
+        <v>0.7667923864283746</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01634430737016146</v>
+        <v>-0.01634430703700218</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.404502825303382</v>
+        <v>-0.4045028244904643</v>
       </c>
       <c r="J18" t="n">
-        <v>-22.94359055198577</v>
+        <v>-22.94358315167915</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5357990410994231</v>
+        <v>0.5357990410049652</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4896117069271524</v>
+        <v>0.4896117068545006</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2473263592854544</v>
+        <v>0.2473263593992668</v>
       </c>
       <c r="N18" t="n">
         <v>87</v>
@@ -1377,28 +1377,28 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2937567510999453</v>
+        <v>0.2937567513969824</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7731756085785229</v>
+        <v>0.7731756086906226</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04430604725041576</v>
+        <v>-0.04430604742731248</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3975636862444958</v>
+        <v>-0.3975636867504022</v>
       </c>
       <c r="J19" t="n">
-        <v>-22.99771865387226</v>
+        <v>-22.99771125334695</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5359234968426274</v>
+        <v>0.5359234968781419</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4920848795780692</v>
+        <v>0.4920848796964746</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2616084832786803</v>
+        <v>0.2616084833145283</v>
       </c>
       <c r="N19" t="n">
         <v>87</v>
@@ -1427,28 +1427,28 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2633677818242428</v>
+        <v>0.2633677816285501</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7222828468426705</v>
+        <v>0.7222828465889883</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05662861156127974</v>
+        <v>0.05662861183662926</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2140278974745229</v>
+        <v>-0.2140278986331055</v>
       </c>
       <c r="J20" t="n">
-        <v>-18.30427938590542</v>
+        <v>-18.30427622767354</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4887907900181267</v>
+        <v>0.4887907898611324</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4520907396966238</v>
+        <v>0.4520907396602369</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2799822092868883</v>
+        <v>0.2799822089652589</v>
       </c>
       <c r="N20" t="n">
         <v>82</v>
@@ -1477,28 +1477,28 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2683866845146669</v>
+        <v>0.2683866844380283</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7444665910868105</v>
+        <v>0.7444665911126889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02718648577655358</v>
+        <v>0.02718648584396988</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.258787356444941</v>
+        <v>-0.2587873562682717</v>
       </c>
       <c r="J21" t="n">
-        <v>-18.137615229793</v>
+        <v>-18.13761207128633</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4969368229658145</v>
+        <v>0.4969368230117391</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4728705517147951</v>
+        <v>0.47287055169009</v>
       </c>
       <c r="M21" t="n">
-        <v>0.289271050307411</v>
+        <v>0.2892710503355685</v>
       </c>
       <c r="N21" t="n">
         <v>84</v>
@@ -1527,28 +1527,28 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2538810307781779</v>
+        <v>0.2538810306178085</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7478614846072624</v>
+        <v>0.74786148463754</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03105973608541035</v>
+        <v>0.03105973611098989</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.2606092990341722</v>
+        <v>-0.2606092980842618</v>
       </c>
       <c r="J22" t="n">
-        <v>-18.04266639116925</v>
+        <v>-18.04266323267277</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5072912133075547</v>
+        <v>0.50729121326218</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4738633523379205</v>
+        <v>0.4738633522855494</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2782192451485093</v>
+        <v>0.2782192454017208</v>
       </c>
       <c r="N22" t="n">
         <v>84</v>
@@ -1577,28 +1577,28 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2672979933027699</v>
+        <v>0.2672979933139513</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7496487582051204</v>
+        <v>0.7496487581903748</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.004712900637173334</v>
+        <v>-0.004712900681226984</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.239840560784387</v>
+        <v>-0.2398405609022234</v>
       </c>
       <c r="J23" t="n">
-        <v>-13.391450627736</v>
+        <v>-13.39145028839361</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5071436785345097</v>
+        <v>0.5071436785712464</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4341613569848751</v>
+        <v>0.4341613569323933</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3410021497029025</v>
+        <v>0.3410021496826665</v>
       </c>
       <c r="N23" t="n">
         <v>64</v>
@@ -1627,28 +1627,28 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2636116131758254</v>
+        <v>0.2636116130229558</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7571277143982661</v>
+        <v>0.757127714377437</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.009685282454540811</v>
+        <v>-0.009685282724717581</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.2269685997543434</v>
+        <v>-0.2269685996380986</v>
       </c>
       <c r="J24" t="n">
-        <v>-13.43454627271322</v>
+        <v>-13.43454593337388</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5067833278647331</v>
+        <v>0.5067833278573256</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4431779539744038</v>
+        <v>0.4431779539769281</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3464193060719</v>
+        <v>0.3464193060339842</v>
       </c>
       <c r="N24" t="n">
         <v>66</v>
@@ -1677,28 +1677,28 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2634827038744142</v>
+        <v>0.2634827037880073</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7423630444005279</v>
+        <v>0.7423630445092987</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04406112923300043</v>
+        <v>0.04406112929615347</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.2544176421103543</v>
+        <v>-0.2544176421681641</v>
       </c>
       <c r="J25" t="n">
-        <v>-13.37282715043018</v>
+        <v>-13.37282681110267</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4953401198628923</v>
+        <v>0.4953401198422354</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4543861159061851</v>
+        <v>0.4543861161270454</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3150782649081855</v>
+        <v>0.3150782648784159</v>
       </c>
       <c r="N25" t="n">
         <v>68</v>
@@ -1727,28 +1727,28 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2014837733857394</v>
+        <v>0.2014837734882169</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6538306492653755</v>
+        <v>0.653830649254438</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07067009132748581</v>
+        <v>0.07067009142616598</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.1388721023215567</v>
+        <v>-0.1388721022022423</v>
       </c>
       <c r="J26" t="n">
-        <v>-8.095354124732003</v>
+        <v>-8.095351590258776</v>
       </c>
       <c r="K26" t="n">
-        <v>0.481101668801947</v>
+        <v>0.4811016687621565</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3886598199032251</v>
+        <v>0.3886598197701946</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2120831124524691</v>
+        <v>0.212083112752879</v>
       </c>
       <c r="N26" t="n">
         <v>51</v>
@@ -1777,28 +1777,28 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2024237814786773</v>
+        <v>0.202423781563356</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6563686930076673</v>
+        <v>0.6563686931056175</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06361532242522117</v>
+        <v>0.06361532222490496</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.1441605715151013</v>
+        <v>-0.1441605715344849</v>
       </c>
       <c r="J27" t="n">
-        <v>-8.201173060887573</v>
+        <v>-8.201170526378201</v>
       </c>
       <c r="K27" t="n">
-        <v>0.4764877869470618</v>
+        <v>0.4764877869437028</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3928134312959228</v>
+        <v>0.3928134313033654</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2224339413048218</v>
+        <v>0.22243394158792</v>
       </c>
       <c r="N27" t="n">
         <v>52</v>
@@ -1827,28 +1827,28 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2058324796115263</v>
+        <v>0.2058324797239778</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6534967414936917</v>
+        <v>0.6534967415952208</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07495102114307883</v>
+        <v>0.0749510212712039</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1333621248701888</v>
+        <v>-0.1333621248302848</v>
       </c>
       <c r="J28" t="n">
-        <v>-8.077147046178865</v>
+        <v>-8.077144511736213</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4810158447999479</v>
+        <v>0.4810158448370159</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3828196618088154</v>
+        <v>0.3828196617550187</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2216548098437009</v>
+        <v>0.2216548101554966</v>
       </c>
       <c r="N28" t="n">
         <v>50</v>
@@ -1877,28 +1877,28 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2375123155295365</v>
+        <v>0.2375123155761353</v>
       </c>
       <c r="G29" t="n">
-        <v>0.633977505887415</v>
+        <v>0.6339775059245418</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.04269381356755275</v>
+        <v>-0.0426938135697128</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.03618395028564692</v>
+        <v>-0.03618395034459354</v>
       </c>
       <c r="J29" t="n">
-        <v>-3.837860259095722</v>
+        <v>-3.837860234146193</v>
       </c>
       <c r="K29" t="n">
-        <v>0.4457970018747994</v>
+        <v>0.4457970019048522</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3287638996837955</v>
+        <v>0.3287638997101812</v>
       </c>
       <c r="M29" t="n">
-        <v>0.308393919128395</v>
+        <v>0.3083939191332313</v>
       </c>
       <c r="N29" t="n">
         <v>29</v>
@@ -1927,28 +1927,28 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2395278142087061</v>
+        <v>0.2395278141969768</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6431484478842699</v>
+        <v>0.6431484478847604</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02610055568550251</v>
+        <v>-0.02610055570545455</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.06688062228442959</v>
+        <v>-0.06688062224441182</v>
       </c>
       <c r="J30" t="n">
-        <v>-3.870602716729437</v>
+        <v>-3.87060269177954</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4439748912698622</v>
+        <v>0.4439748912775227</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3264290918671092</v>
+        <v>0.32642909185317</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3316176562257258</v>
+        <v>0.3316176562301639</v>
       </c>
       <c r="N30" t="n">
         <v>29</v>
@@ -1977,28 +1977,28 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2452538317470718</v>
+        <v>0.2452538317901336</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6453197466920365</v>
+        <v>0.6453197466672593</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.03693819417861732</v>
+        <v>-0.03693819419595457</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.07030743710600973</v>
+        <v>-0.07030743709475473</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.859983437293236</v>
+        <v>-3.859983412342695</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4453796216003265</v>
+        <v>0.4453796216015895</v>
       </c>
       <c r="L31" t="n">
-        <v>0.3268739905940378</v>
+        <v>0.3268739905386263</v>
       </c>
       <c r="M31" t="n">
-        <v>0.3335085642182331</v>
+        <v>0.3335085642229797</v>
       </c>
       <c r="N31" t="n">
         <v>29</v>
@@ -2027,28 +2027,28 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4760844436650794</v>
+        <v>0.4760844436823458</v>
       </c>
       <c r="G32" t="n">
-        <v>1.056022441075276</v>
+        <v>1.056022441138337</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02612519834872273</v>
+        <v>0.02612519835321336</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.008572020278904802</v>
+        <v>-0.008572020325630092</v>
       </c>
       <c r="J32" t="n">
-        <v>2.734076579299093</v>
+        <v>2.734076334560037</v>
       </c>
       <c r="K32" t="n">
-        <v>0.4957702899903761</v>
+        <v>0.4957702900327399</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4392934875436104</v>
+        <v>0.4392934876062224</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8224454069536934</v>
+        <v>0.8224454069756592</v>
       </c>
       <c r="N32" t="n">
         <v>85</v>
@@ -2077,28 +2077,28 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4710900287980251</v>
+        <v>0.4710900287836932</v>
       </c>
       <c r="G33" t="n">
-        <v>1.053114770859246</v>
+        <v>1.053114770868378</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002351689552028802</v>
+        <v>0.002351689509680455</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005446912747061106</v>
+        <v>0.005446912720117325</v>
       </c>
       <c r="J33" t="n">
-        <v>2.722446537534391</v>
+        <v>2.72244629279123</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4953051279145306</v>
+        <v>0.4953051279579712</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4396568364357542</v>
+        <v>0.4396568363743993</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8187951007662334</v>
+        <v>0.8187951007846558</v>
       </c>
       <c r="N33" t="n">
         <v>85</v>
@@ -2127,28 +2127,28 @@
         <v>1.900000000000006</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4596941920879177</v>
+        <v>0.459694192065062</v>
       </c>
       <c r="G34" t="n">
-        <v>1.065277473624205</v>
+        <v>1.0652774736176</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03460036197185445</v>
+        <v>0.03460036199118122</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01939795007160683</v>
+        <v>-0.01939795008212286</v>
       </c>
       <c r="J34" t="n">
-        <v>2.688634969867739</v>
+        <v>2.688634725128825</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4960055980537859</v>
+        <v>0.4960055980226993</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4409452605122701</v>
+        <v>0.440945260499876</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8332837570373267</v>
+        <v>0.8332837570539496</v>
       </c>
       <c r="N34" t="n">
         <v>84</v>
@@ -2177,28 +2177,28 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F35" t="n">
-        <v>0.244160475763508</v>
+        <v>0.2441604757191401</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6872206678701939</v>
+        <v>0.6872206678669227</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.006964444462198571</v>
+        <v>-0.00696444444571398</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0004113354516448453</v>
+        <v>-0.0004113354365244959</v>
       </c>
       <c r="J35" t="n">
-        <v>6.65745829107356</v>
+        <v>6.657456906472075</v>
       </c>
       <c r="K35" t="n">
-        <v>0.4961455307447541</v>
+        <v>0.4961455307500666</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4464697797541965</v>
+        <v>0.4464697797082346</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1636355537045791</v>
+        <v>0.1636355538000698</v>
       </c>
       <c r="N35" t="n">
         <v>83</v>
@@ -2227,28 +2227,28 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2433102283982323</v>
+        <v>0.2433102283261154</v>
       </c>
       <c r="G36" t="n">
-        <v>0.68816610385541</v>
+        <v>0.6881661038249012</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.01932631601295043</v>
+        <v>-0.01932631606302948</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.02961871177359399</v>
+        <v>-0.02961871179650188</v>
       </c>
       <c r="J36" t="n">
-        <v>6.684730430844293</v>
+        <v>6.68472904617752</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4923278495359494</v>
+        <v>0.49232784952777</v>
       </c>
       <c r="L36" t="n">
-        <v>0.4467858394769534</v>
+        <v>0.4467858394080584</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1776746709852276</v>
+        <v>0.1776746710629144</v>
       </c>
       <c r="N36" t="n">
         <v>82</v>
@@ -2277,28 +2277,28 @@
         <v>6.900000000000006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2437569255663225</v>
+        <v>0.2437569255252626</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6865832972547534</v>
+        <v>0.6865832972260838</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.004481315134341912</v>
+        <v>-0.004481315061696023</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01625209183299603</v>
+        <v>-0.01625209186266829</v>
       </c>
       <c r="J37" t="n">
-        <v>6.672394598455279</v>
+        <v>6.672393213835488</v>
       </c>
       <c r="K37" t="n">
-        <v>0.493694752592656</v>
+        <v>0.493694752551865</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4455460051893839</v>
+        <v>0.4455460051438424</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1707362661869565</v>
+        <v>0.1707362663083906</v>
       </c>
       <c r="N37" t="n">
         <v>82</v>
@@ -2327,28 +2327,28 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2657623287940902</v>
+        <v>0.2657623286906587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7162934931078967</v>
+        <v>0.7162934931128266</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.008892415859179437</v>
+        <v>-0.008892415954221633</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01435344161217245</v>
+        <v>0.01435344157334839</v>
       </c>
       <c r="J38" t="n">
-        <v>12.09306642673805</v>
+        <v>12.09306458588405</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5209605324234481</v>
+        <v>0.5209605323845037</v>
       </c>
       <c r="L38" t="n">
-        <v>0.474325339339205</v>
+        <v>0.4743253394008661</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1291973853704034</v>
+        <v>0.1291973853283435</v>
       </c>
       <c r="N38" t="n">
         <v>86</v>
@@ -2377,28 +2377,28 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2624323596812304</v>
+        <v>0.2624323594958779</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7148563956674217</v>
+        <v>0.7148563955505454</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.003833066820050135</v>
+        <v>-0.003833066721654177</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02152874914588665</v>
+        <v>0.02152874925286596</v>
       </c>
       <c r="J39" t="n">
-        <v>12.09382504491076</v>
+        <v>12.09382320408335</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5208166754972288</v>
+        <v>0.5208166754666459</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4734725521472388</v>
+        <v>0.4734725520106901</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1248735332800416</v>
+        <v>0.1248735332561224</v>
       </c>
       <c r="N39" t="n">
         <v>86</v>
@@ -2427,28 +2427,28 @@
         <v>11.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2651111432064723</v>
+        <v>0.2651111432125344</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7181680576853858</v>
+        <v>0.718168057784911</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0319833825857927</v>
+        <v>-0.03198338252929034</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04418611159570673</v>
+        <v>0.04418611152789254</v>
       </c>
       <c r="J40" t="n">
-        <v>12.14847738822976</v>
+        <v>12.14847554737676</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5223296081623575</v>
+        <v>0.5223296081964268</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4756915354486456</v>
+        <v>0.4756915355558036</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1290530999978451</v>
+        <v>0.1290531000189588</v>
       </c>
       <c r="N40" t="n">
         <v>86</v>
@@ -2477,28 +2477,28 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2750555754255533</v>
+        <v>0.2750555755165975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7258023139253457</v>
+        <v>0.7258023139670733</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.0354669521943265</v>
+        <v>-0.03546695204363459</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04969193476864575</v>
+        <v>0.04969193468861022</v>
       </c>
       <c r="J41" t="n">
-        <v>16.83586998176763</v>
+        <v>16.83587390812788</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5131039700510424</v>
+        <v>0.5131039700350064</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4981330846797388</v>
+        <v>0.498133084753379</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1240030030470952</v>
+        <v>0.1240030030619027</v>
       </c>
       <c r="N41" t="n">
         <v>87</v>
@@ -2527,28 +2527,28 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2718463027292477</v>
+        <v>0.2718463028786087</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7253876926484581</v>
+        <v>0.7253876926157415</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.06570285841922896</v>
+        <v>-0.06570285824210487</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03378401788415886</v>
+        <v>0.03378401809868592</v>
       </c>
       <c r="J42" t="n">
-        <v>16.84839498130074</v>
+        <v>16.84839890788576</v>
       </c>
       <c r="K42" t="n">
-        <v>0.513370971006237</v>
+        <v>0.5133709709347133</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4968041962300782</v>
+        <v>0.4968041962715221</v>
       </c>
       <c r="M42" t="n">
-        <v>0.1257900686946803</v>
+        <v>0.1257900686340183</v>
       </c>
       <c r="N42" t="n">
         <v>87</v>
@@ -2577,28 +2577,28 @@
         <v>16.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2696425886133854</v>
+        <v>0.2696425885993627</v>
       </c>
       <c r="G43" t="n">
-        <v>0.722887360139826</v>
+        <v>0.722887360105002</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.04713791655541399</v>
+        <v>-0.04713791660134348</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03991641840383409</v>
+        <v>0.03991641843180105</v>
       </c>
       <c r="J43" t="n">
-        <v>16.8387953986243</v>
+        <v>16.83879932508624</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5104025345298477</v>
+        <v>0.5104025345121177</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4939525792926482</v>
+        <v>0.493952579293732</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1344107049515474</v>
+        <v>0.134410704827688</v>
       </c>
       <c r="N43" t="n">
         <v>87</v>
@@ -2627,28 +2627,28 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.273536812081118</v>
+        <v>0.2735368119713051</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7366781962957244</v>
+        <v>0.7366781962544526</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1129165245468471</v>
+        <v>-0.112916524799175</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03737302366806716</v>
+        <v>0.03737302418556965</v>
       </c>
       <c r="J44" t="n">
-        <v>21.96006324582067</v>
+        <v>21.96006176714343</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5243947167814079</v>
+        <v>0.5243947166884129</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4949137913877211</v>
+        <v>0.4949137914128108</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1508816920751923</v>
+        <v>0.1508816921147594</v>
       </c>
       <c r="N44" t="n">
         <v>87</v>
@@ -2677,28 +2677,28 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2720497003801975</v>
+        <v>0.2720497003350475</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7395870390062497</v>
+        <v>0.7395870390029918</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1108488215706416</v>
+        <v>-0.1108488219715582</v>
       </c>
       <c r="I45" t="n">
-        <v>0.007131086591130043</v>
+        <v>0.007131086809806675</v>
       </c>
       <c r="J45" t="n">
-        <v>22.00556849428565</v>
+        <v>22.0055670155645</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5286683437716755</v>
+        <v>0.5286683436539196</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4930801453592439</v>
+        <v>0.4930801454633624</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1561113090465406</v>
+        <v>0.1561113091010589</v>
       </c>
       <c r="N45" t="n">
         <v>87</v>
@@ -2727,28 +2727,28 @@
         <v>21.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2790236935379519</v>
+        <v>0.2790236937543324</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7455470271200234</v>
+        <v>0.7455470271863739</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.1003665098050988</v>
+        <v>-0.1003665099744353</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02857474816937611</v>
+        <v>0.02857474798344128</v>
       </c>
       <c r="J46" t="n">
-        <v>21.97353549564129</v>
+        <v>21.9735340169746</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5295588477330111</v>
+        <v>0.529558847786659</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4983461689170711</v>
+        <v>0.4983461689621769</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1644958733854991</v>
+        <v>0.164495873376897</v>
       </c>
       <c r="N46" t="n">
         <v>87</v>
@@ -2777,28 +2777,28 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.280696643111544</v>
+        <v>0.2806966428785205</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7517627099003455</v>
+        <v>0.7517627098288377</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.183406602083835</v>
+        <v>-0.1834066018376461</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05361918303430002</v>
+        <v>0.05361918328600268</v>
       </c>
       <c r="J47" t="n">
-        <v>27.68411946889892</v>
+        <v>27.6841194702568</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5415913493421295</v>
+        <v>0.5415913491951987</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4890772794963645</v>
+        <v>0.4890772795490815</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1806360899569342</v>
+        <v>0.1806360899571635</v>
       </c>
       <c r="N47" t="n">
         <v>87</v>
@@ -2827,28 +2827,28 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2881872421474051</v>
+        <v>0.2881872420582097</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7586917763970914</v>
+        <v>0.7586917761733836</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.1704607046735305</v>
+        <v>-0.1704607045681996</v>
       </c>
       <c r="I48" t="n">
-        <v>0.03904871429273271</v>
+        <v>0.03904871413294586</v>
       </c>
       <c r="J48" t="n">
-        <v>27.69320792678078</v>
+        <v>27.69320792813829</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5384706665554035</v>
+        <v>0.5384706665428763</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4996794130218962</v>
+        <v>0.4996794126957475</v>
       </c>
       <c r="M48" t="n">
-        <v>0.189691953002895</v>
+        <v>0.1896919530027729</v>
       </c>
       <c r="N48" t="n">
         <v>87</v>
@@ -2877,28 +2877,28 @@
         <v>26.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>0.278980579403967</v>
+        <v>0.2789805793261471</v>
       </c>
       <c r="G49" t="n">
-        <v>0.751309385670819</v>
+        <v>0.7513093854966392</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.1521283255681851</v>
+        <v>-0.1521283256475385</v>
       </c>
       <c r="I49" t="n">
-        <v>0.03778269911794041</v>
+        <v>0.03778269908963239</v>
       </c>
       <c r="J49" t="n">
-        <v>27.69708065643508</v>
+        <v>27.69708065779232</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5435230079618213</v>
+        <v>0.5435230076794985</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4863043494714059</v>
+        <v>0.4863043495179404</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1804345102755305</v>
+        <v>0.1804345102752215</v>
       </c>
       <c r="N49" t="n">
         <v>87</v>
@@ -2927,28 +2927,28 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2924659088215999</v>
+        <v>0.292465908117008</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7582287279339431</v>
+        <v>0.7582287278431945</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.2009224356261257</v>
+        <v>-0.2009224372061453</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0314259150911198</v>
+        <v>0.03142591503990388</v>
       </c>
       <c r="J50" t="n">
-        <v>32.4452111430179</v>
+        <v>32.44522285815852</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5386541852063399</v>
+        <v>0.5386541847557074</v>
       </c>
       <c r="L50" t="n">
-        <v>0.4858216222198165</v>
+        <v>0.4858216220551559</v>
       </c>
       <c r="M50" t="n">
-        <v>0.2207709763708342</v>
+        <v>0.2207709775210016</v>
       </c>
       <c r="N50" t="n">
         <v>87</v>
@@ -2977,28 +2977,28 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2881054294668811</v>
+        <v>0.2881054297658566</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7624833058609939</v>
+        <v>0.7624833058962818</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.2258296308423269</v>
+        <v>-0.2258296300564098</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0382073365599922</v>
+        <v>0.03820733695550871</v>
       </c>
       <c r="J51" t="n">
-        <v>32.55637258453318</v>
+        <v>32.5563842999779</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5525603004921444</v>
+        <v>0.5525603003411192</v>
       </c>
       <c r="L51" t="n">
-        <v>0.489309743068687</v>
+        <v>0.4893097438377519</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1913997946049015</v>
+        <v>0.1913997932154627</v>
       </c>
       <c r="N51" t="n">
         <v>87</v>
@@ -3027,28 +3027,28 @@
         <v>31.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2765672704691786</v>
+        <v>0.2765672699909802</v>
       </c>
       <c r="G52" t="n">
-        <v>0.7537858262903808</v>
+        <v>0.7537858258981907</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.2117401659472762</v>
+        <v>-0.2117401659289158</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02689552617948721</v>
+        <v>0.02689552666799955</v>
       </c>
       <c r="J52" t="n">
-        <v>32.5298144327443</v>
+        <v>32.52982614810936</v>
       </c>
       <c r="K52" t="n">
-        <v>0.531949795332278</v>
+        <v>0.5319497952430634</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4855707658130278</v>
+        <v>0.485570765549941</v>
       </c>
       <c r="M52" t="n">
-        <v>0.2223589857640014</v>
+        <v>0.2223589852223982</v>
       </c>
       <c r="N52" t="n">
         <v>87</v>
@@ -3077,28 +3077,28 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2400001003100019</v>
+        <v>0.2400001001474758</v>
       </c>
       <c r="G53" t="n">
-        <v>0.7635761228861654</v>
+        <v>0.763576122850666</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.284973376335472</v>
+        <v>-0.2849733763776499</v>
       </c>
       <c r="I53" t="n">
-        <v>0.08731062607114382</v>
+        <v>0.08731062581108517</v>
       </c>
       <c r="J53" t="n">
-        <v>37.60484175530944</v>
+        <v>37.60484046932582</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5473537760719334</v>
+        <v>0.547353775832604</v>
       </c>
       <c r="L53" t="n">
-        <v>0.456298159065166</v>
+        <v>0.4562981592386568</v>
       </c>
       <c r="M53" t="n">
-        <v>0.2743069982618574</v>
+        <v>0.2743069983519197</v>
       </c>
       <c r="N53" t="n">
         <v>87</v>
@@ -3127,28 +3127,28 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2632057569808421</v>
+        <v>0.2632057572319665</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7586900912441703</v>
+        <v>0.7586900914609708</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2608016077454067</v>
+        <v>-0.2608016077794559</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06526251414595663</v>
+        <v>0.06526251444489617</v>
       </c>
       <c r="J54" t="n">
-        <v>37.4979359252974</v>
+        <v>37.49793463932219</v>
       </c>
       <c r="K54" t="n">
-        <v>0.523238885784627</v>
+        <v>0.5232388857525544</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4640685384130703</v>
+        <v>0.4640685386773672</v>
       </c>
       <c r="M54" t="n">
-        <v>0.2940614129907049</v>
+        <v>0.2940614131899941</v>
       </c>
       <c r="N54" t="n">
         <v>87</v>
@@ -3177,28 +3177,28 @@
         <v>36.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2458199068857292</v>
+        <v>0.2458199070046913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7443953199697066</v>
+        <v>0.7443953200497269</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2767599299293124</v>
+        <v>-0.2767599298594519</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05994941618496341</v>
+        <v>0.05994941586521918</v>
       </c>
       <c r="J55" t="n">
-        <v>37.58199745015325</v>
+        <v>37.58199616414409</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5186876477868907</v>
+        <v>0.5186876478520249</v>
       </c>
       <c r="L55" t="n">
-        <v>0.4652515862701915</v>
+        <v>0.4652515862702631</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2619703759954443</v>
+        <v>0.2619703760936926</v>
       </c>
       <c r="N55" t="n">
         <v>87</v>
@@ -3227,28 +3227,28 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2673641030609489</v>
+        <v>0.2673641035619307</v>
       </c>
       <c r="G56" t="n">
-        <v>0.7613376057960142</v>
+        <v>0.7613376063330081</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.2020207490035091</v>
+        <v>-0.2020207488501455</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2115215097070404</v>
+        <v>0.2115215124649126</v>
       </c>
       <c r="J56" t="n">
-        <v>42.43550690515881</v>
+        <v>42.43552389444571</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5128230423271417</v>
+        <v>0.5128230423213145</v>
       </c>
       <c r="L56" t="n">
-        <v>0.476481072289064</v>
+        <v>0.4764810725045898</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2993547477622458</v>
+        <v>0.2993547487948811</v>
       </c>
       <c r="N56" t="n">
         <v>87</v>
@@ -3277,28 +3277,28 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3024767606811569</v>
+        <v>0.3024767611563196</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7689853100817063</v>
+        <v>0.7689853103855095</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.2103370621743466</v>
+        <v>-0.2103370628519201</v>
       </c>
       <c r="I57" t="n">
-        <v>0.180591974684944</v>
+        <v>0.1805919747995404</v>
       </c>
       <c r="J57" t="n">
-        <v>42.44293991718256</v>
+        <v>42.44295690721815</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5418524377513295</v>
+        <v>0.5418524378921651</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4695722239817199</v>
+        <v>0.46957222435711</v>
       </c>
       <c r="M57" t="n">
-        <v>0.2779141401391792</v>
+        <v>0.2779141400708824</v>
       </c>
       <c r="N57" t="n">
         <v>87</v>
@@ -3327,28 +3327,28 @@
         <v>41.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2764461921327239</v>
+        <v>0.2764461911860772</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7876356078517107</v>
+        <v>0.7876356061728218</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.2032649744513719</v>
+        <v>-0.2032649742726562</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2058238902927201</v>
+        <v>0.2058238877215217</v>
       </c>
       <c r="J58" t="n">
-        <v>42.30473460028289</v>
+        <v>42.30475158970086</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5309115364937832</v>
+        <v>0.5309115366037416</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4701079668762916</v>
+        <v>0.4701079661701669</v>
       </c>
       <c r="M58" t="n">
-        <v>0.342784612626004</v>
+        <v>0.342784609566474</v>
       </c>
       <c r="N58" t="n">
         <v>87</v>
@@ -3377,28 +3377,28 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3442576937435478</v>
+        <v>0.344257693774554</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8594857303557126</v>
+        <v>0.8594857302822216</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.2871722219017556</v>
+        <v>-0.2871722218093851</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1389331362511825</v>
+        <v>0.13893313662021</v>
       </c>
       <c r="J59" t="n">
-        <v>47.46149684816936</v>
+        <v>47.46149685153608</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5358825437037142</v>
+        <v>0.5358825436681601</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4493418881687363</v>
+        <v>0.4493418880705684</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4996373560650553</v>
+        <v>0.49963735606503</v>
       </c>
       <c r="N59" t="n">
         <v>86</v>
@@ -3427,28 +3427,28 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3327185909949343</v>
+        <v>0.3327185910554742</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8309796474026213</v>
+        <v>0.8309796474116121</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3039975219317057</v>
+        <v>-0.3039975219607527</v>
       </c>
       <c r="I60" t="n">
-        <v>0.09982162232910241</v>
+        <v>0.0998216222617998</v>
       </c>
       <c r="J60" t="n">
-        <v>47.7605386821411</v>
+        <v>47.76053868550775</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5115779595393669</v>
+        <v>0.5115779594713413</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5036109393958941</v>
+        <v>0.5036109394796165</v>
       </c>
       <c r="M60" t="n">
-        <v>0.4185584635767337</v>
+        <v>0.4185584635769801</v>
       </c>
       <c r="N60" t="n">
         <v>87</v>
@@ -3477,28 +3477,28 @@
         <v>46.90000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3132629600775557</v>
+        <v>0.3132629602853167</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8177545747679874</v>
+        <v>0.8177545750380651</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.2649618617650162</v>
+        <v>-0.2649618623202059</v>
       </c>
       <c r="I61" t="n">
-        <v>0.09168652480968831</v>
+        <v>0.09168652501375618</v>
       </c>
       <c r="J61" t="n">
-        <v>47.8895894087406</v>
+        <v>47.88958941210733</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5071405220499767</v>
+        <v>0.5071405221998952</v>
       </c>
       <c r="L61" t="n">
-        <v>0.4638694031492268</v>
+        <v>0.4638694034611961</v>
       </c>
       <c r="M61" t="n">
-        <v>0.4431209905554243</v>
+        <v>0.4431209905556915</v>
       </c>
       <c r="N61" t="n">
         <v>87</v>
@@ -3527,28 +3527,28 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4135299961103684</v>
+        <v>0.4135299960342564</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9893457063250909</v>
+        <v>0.9893457063904589</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.3221880051740982</v>
+        <v>-0.3221880054656481</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2395575846474571</v>
+        <v>0.2395575849995453</v>
       </c>
       <c r="J62" t="n">
-        <v>53.05525670066565</v>
+        <v>53.05525657969139</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5191738310690339</v>
+        <v>0.5191738309401303</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5181617807134695</v>
+        <v>0.5181617809898686</v>
       </c>
       <c r="M62" t="n">
-        <v>0.6639064909796102</v>
+        <v>0.6639064909620837</v>
       </c>
       <c r="N62" t="n">
         <v>87</v>
@@ -3577,28 +3577,28 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4224107794748247</v>
+        <v>0.4224107795473224</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9963395033197139</v>
+        <v>0.9963395034015137</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.3008536857656168</v>
+        <v>-0.300853685841787</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1763072536767254</v>
+        <v>0.1763072533993295</v>
       </c>
       <c r="J63" t="n">
-        <v>53.23730010264462</v>
+        <v>53.23729998166555</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5677940505858194</v>
+        <v>0.5677940506244995</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5185616248532923</v>
+        <v>0.5185616249707025</v>
       </c>
       <c r="M63" t="n">
-        <v>0.6335583345077795</v>
+        <v>0.6335583345055891</v>
       </c>
       <c r="N63" t="n">
         <v>87</v>
@@ -3627,28 +3627,28 @@
         <v>51.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4167767326065235</v>
+        <v>0.4167767325527445</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9942035099073449</v>
+        <v>0.9942035100704498</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.310222914776773</v>
+        <v>-0.3102229150578069</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1756573997134865</v>
+        <v>0.1756573997186024</v>
       </c>
       <c r="J64" t="n">
-        <v>53.504384328573</v>
+        <v>53.50438420759234</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5400606141886489</v>
+        <v>0.5400606143069798</v>
       </c>
       <c r="L64" t="n">
-        <v>0.5375657545604331</v>
+        <v>0.5375657547088846</v>
       </c>
       <c r="M64" t="n">
-        <v>0.6385908014042415</v>
+        <v>0.6385908014331049</v>
       </c>
       <c r="N64" t="n">
         <v>87</v>
